--- a/documentacion/Scrum/Sprint_II.xlsx
+++ b/documentacion/Scrum/Sprint_II.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EDWARD\Documents\GitHub\catalogo\documentacion\Scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262F252-335F-4D80-AAE5-AF9A8255834E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11E8D63-A2E5-40D0-B36D-FF45DB73DE4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{430BF44B-0424-4AB2-A5F6-A43D00CF8B45}"/>
   </bookViews>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +132,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,10 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +488,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +522,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -569,6 +580,9 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -580,6 +594,9 @@
       <c r="C8" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="1">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -603,8 +620,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
